--- a/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.22699920340653015</v>
+        <v>0.22699920311898902</v>
       </c>
       <c r="C2">
-        <v>0.11362432333902261</v>
+        <v>0.11362432317820871</v>
       </c>
       <c r="D2">
-        <v>1.4302892914010219</v>
+        <v>1.4302892919195191</v>
       </c>
       <c r="E2">
-        <v>0.44012257057196758</v>
+        <v>0.44012257095566071</v>
       </c>
       <c r="F2">
-        <v>0.7401379621584484</v>
+        <v>0.74013798865629565</v>
       </c>
       <c r="G2">
-        <v>0.99091462023359489</v>
+        <v>0.99091462064376579</v>
       </c>
       <c r="H2">
-        <v>2.4706403231982037</v>
+        <v>2.4706403214083648</v>
       </c>
       <c r="I2">
-        <v>8.7749848512626502E-2</v>
+        <v>8.7749848654102236E-2</v>
       </c>
       <c r="J2">
-        <v>0.52223553997398753</v>
+        <v>0.52223553996572525</v>
       </c>
       <c r="K2">
-        <v>0.63497421066315107</v>
+        <v>0.63497421334066895</v>
       </c>
       <c r="L2">
-        <v>0.46337158406451645</v>
+        <v>0.46337158610398976</v>
       </c>
       <c r="M2">
-        <v>1.0734800477663697</v>
+        <v>1.073480046880259</v>
       </c>
       <c r="N2">
-        <v>0.7171852832907426</v>
+        <v>0.71718528461025732</v>
       </c>
       <c r="O2">
-        <v>0.9263164893439807</v>
+        <v>0.92631648911355169</v>
       </c>
       <c r="P2">
-        <v>0.3193440757393638</v>
+        <v>0.31934407896583061</v>
       </c>
       <c r="Q2">
-        <v>0.52659637229391187</v>
+        <v>0.52659637232571421</v>
       </c>
       <c r="R2">
-        <v>1.4033779626106873</v>
+        <v>1.4033779609428025</v>
       </c>
       <c r="S2">
-        <v>1.5759368313160202</v>
+        <v>1.5759368374859319</v>
       </c>
       <c r="T2">
-        <v>9.0945678457264361</v>
+        <v>9.0945677136296137</v>
       </c>
       <c r="U2">
-        <v>0.4751556322036487</v>
+        <v>0.47515563423128598</v>
       </c>
       <c r="V2">
-        <v>5.3566697778670189</v>
+        <v>5.3566697704635118</v>
       </c>
       <c r="W2">
-        <v>0.25619107845719752</v>
+        <v>0.25619107840014327</v>
       </c>
       <c r="X2">
-        <v>0.14213261525652135</v>
+        <v>0.14213261440257788</v>
       </c>
       <c r="Y2">
-        <v>0.60308254968279906</v>
+        <v>0.6030825496804032</v>
       </c>
       <c r="AA2">
-        <v>0.39073654061988022</v>
+        <v>0.39073654089414039</v>
       </c>
       <c r="AB2">
-        <v>0.16788968675660099</v>
+        <v>0.16788968678545282</v>
       </c>
       <c r="AC2">
-        <v>2.0102621953611362</v>
+        <v>2.0102622030869703</v>
       </c>
       <c r="AD2">
-        <v>0.16504059890193332</v>
+        <v>0.16504059813881988</v>
       </c>
       <c r="AE2">
-        <v>0.87579083952446146</v>
+        <v>0.87579083939177416</v>
       </c>
       <c r="AF2">
-        <v>1.0230278154369907</v>
+        <v>1.0230277935281034</v>
       </c>
       <c r="AG2">
-        <v>1.1233829686206176</v>
+        <v>1.1233829684226617</v>
       </c>
       <c r="AH2">
-        <v>0.19080691113340387</v>
+        <v>0.19080690914294637</v>
       </c>
       <c r="AI2">
-        <v>0.66550646389562362</v>
+        <v>0.66550646383876721</v>
       </c>
       <c r="AJ2">
-        <v>1.2315965758051419</v>
+        <v>1.2315965770646715</v>
       </c>
       <c r="AK2">
-        <v>0.5294704595172276</v>
+        <v>0.52947045769793588</v>
       </c>
       <c r="AL2">
-        <v>0.79764450943150578</v>
+        <v>0.79764450939902798</v>
       </c>
       <c r="AM2">
-        <v>0.18034863320593097</v>
+        <v>0.18034863288214198</v>
       </c>
       <c r="AN2">
-        <v>0.96313990785991566</v>
+        <v>0.96313990293282503</v>
       </c>
       <c r="AO2">
-        <v>1.0134386305159928</v>
+        <v>1.0134386328402594</v>
       </c>
       <c r="AP2">
-        <v>0.34446332107651384</v>
+        <v>0.34446332458656276</v>
       </c>
       <c r="AQ2">
-        <v>1.3781050564589912</v>
+        <v>1.3781050573816538</v>
       </c>
       <c r="AR2">
-        <v>0.87312446068467564</v>
+        <v>0.87312444640255149</v>
       </c>
       <c r="AS2">
-        <v>1.4872467347987233</v>
+        <v>1.4872467365507724</v>
       </c>
       <c r="AT2">
-        <v>0.70666299567757695</v>
+        <v>0.70666299603386629</v>
       </c>
       <c r="AU2">
-        <v>1.8600840172407167</v>
+        <v>1.8600840080384202</v>
       </c>
       <c r="AV2">
-        <v>0.22050731645787733</v>
+        <v>0.22050731564194304</v>
       </c>
       <c r="AW2">
-        <v>0.22223689527490501</v>
+        <v>0.22223689377453212</v>
       </c>
       <c r="AX2">
-        <v>0.40187829886001786</v>
+        <v>0.40187829867933272</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.53869824875811889</v>
+        <v>0.53869824892167983</v>
       </c>
       <c r="C3">
-        <v>0.22918620154760683</v>
+        <v>0.22918620136074555</v>
       </c>
       <c r="D3">
-        <v>1.2762679368723784</v>
+        <v>1.2762679359393816</v>
       </c>
       <c r="E3">
-        <v>0.72766963357034398</v>
+        <v>0.72766963555760367</v>
       </c>
       <c r="F3">
-        <v>0.64753135175037591</v>
+        <v>0.64753135854295807</v>
       </c>
       <c r="G3">
-        <v>0.91729457756570909</v>
+        <v>0.91729457735701569</v>
       </c>
       <c r="H3">
-        <v>2.1798626619875301</v>
+        <v>2.1798626675054766</v>
       </c>
       <c r="I3">
-        <v>0.84551962900131239</v>
+        <v>0.84551962527567426</v>
       </c>
       <c r="J3">
-        <v>0.73011237718447619</v>
+        <v>0.73011237740376522</v>
       </c>
       <c r="K3">
-        <v>1.2331671618211975</v>
+        <v>1.2331671514242233</v>
       </c>
       <c r="L3">
-        <v>0.84387064465603656</v>
+        <v>0.84387064246632326</v>
       </c>
       <c r="M3">
-        <v>0.40574711974068184</v>
+        <v>0.40654668596415738</v>
       </c>
       <c r="N3">
-        <v>0.12684248990509553</v>
+        <v>0.12684248988640923</v>
       </c>
       <c r="O3">
-        <v>1.5447137949032779</v>
+        <v>1.544713802281203</v>
       </c>
       <c r="P3">
-        <v>0.23301527327585828</v>
+        <v>0.23301527322213991</v>
       </c>
       <c r="Q3">
-        <v>0.20009535712558546</v>
+        <v>0.20009535738678194</v>
       </c>
       <c r="R3">
-        <v>0.7335010811255035</v>
+        <v>0.73350108135927172</v>
       </c>
       <c r="S3">
-        <v>1.5618754222719753</v>
+        <v>1.561875420398235</v>
       </c>
       <c r="T3">
-        <v>1.2031631169314114</v>
+        <v>1.203163119681167</v>
       </c>
       <c r="U3">
-        <v>0.81540035511209119</v>
+        <v>0.81540035594890303</v>
       </c>
       <c r="V3">
-        <v>0.69760581427739377</v>
+        <v>0.69760581170396296</v>
       </c>
       <c r="W3">
-        <v>9.2138412238132614E-2</v>
+        <v>9.2138412187957527E-2</v>
       </c>
       <c r="X3">
-        <v>0.11157070480815789</v>
+        <v>0.11157070480387248</v>
       </c>
       <c r="Y3">
-        <v>0.40360181187978111</v>
+        <v>0.40360181308746618</v>
       </c>
       <c r="AA3">
-        <v>0.36246948991586697</v>
+        <v>0.3624694930190302</v>
       </c>
       <c r="AB3">
-        <v>1.002565745238517</v>
+        <v>1.0025657441476838</v>
       </c>
       <c r="AC3">
-        <v>5.2841283677384432</v>
+        <v>5.2841283715060534</v>
       </c>
       <c r="AD3">
-        <v>0.43670874646859775</v>
+        <v>0.43670874881078886</v>
       </c>
       <c r="AE3">
-        <v>0.37746107844415294</v>
+        <v>0.37746107867864803</v>
       </c>
       <c r="AF3">
-        <v>0.42367857332873538</v>
+        <v>0.4236785743229306</v>
       </c>
       <c r="AG3">
-        <v>0.55718582504845215</v>
+        <v>0.55718583117952281</v>
       </c>
       <c r="AH3">
-        <v>0.53789287125604146</v>
+        <v>0.53789287117473317</v>
       </c>
       <c r="AI3">
-        <v>0.85084023078015847</v>
+        <v>0.85084023248151608</v>
       </c>
       <c r="AJ3">
-        <v>2.8412676855999686</v>
+        <v>2.8412677002710964</v>
       </c>
       <c r="AK3">
-        <v>0.35566358053378949</v>
+        <v>0.35566358028892031</v>
       </c>
       <c r="AL3">
-        <v>0.93251288647657538</v>
+        <v>0.93251288437419577</v>
       </c>
       <c r="AM3">
-        <v>0.1526171642639739</v>
+        <v>0.15261716424378549</v>
       </c>
       <c r="AN3">
-        <v>0.92422306070904814</v>
+        <v>0.92422304724005855</v>
       </c>
       <c r="AO3">
-        <v>0.34424108024206618</v>
+        <v>0.34424108024186229</v>
       </c>
       <c r="AP3">
-        <v>0.15102915798412264</v>
+        <v>0.15102915801605071</v>
       </c>
       <c r="AQ3">
-        <v>2.0853481601884352</v>
+        <v>2.0853481404710723</v>
       </c>
       <c r="AR3">
-        <v>1.0555056483311311</v>
+        <v>1.0555056435087364</v>
       </c>
       <c r="AS3">
-        <v>0.59242666295205615</v>
+        <v>0.59242665836165564</v>
       </c>
       <c r="AT3">
-        <v>0.39968469268863788</v>
+        <v>0.39968470158358227</v>
       </c>
       <c r="AU3">
-        <v>0.97531458378235036</v>
+        <v>0.97531457487780615</v>
       </c>
       <c r="AV3">
-        <v>0.23522937696068869</v>
+        <v>0.23522937696953317</v>
       </c>
       <c r="AW3">
-        <v>0.12518807296408024</v>
+        <v>0.12518807293177228</v>
       </c>
       <c r="AX3">
-        <v>0.45357211772347533</v>
+        <v>0.45357211596088703</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.22699920311898902</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.11362432317820871</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.4302892919195191</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.44012257095566071</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.74013798865629565</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.99091462064376579</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.4706403214083648</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.7749848654102236E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.52223553996572525</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.63497421334066895</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.46337158610398976</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.073480046880259</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.71718528461025732</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.92631648911355169</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.31934407896583061</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.52659637232571421</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.4033779609428025</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.5759368374859319</v>
@@ -585,55 +474,55 @@
         <v>0.6030825496804032</v>
       </c>
       <c r="AA2">
-        <v>0.39073654089414039</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.16788968678545282</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.0102622030869703</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.16504059813881988</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.87579083939177416</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.0230277935281034</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.1233829684226617</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.19080690914294637</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.66550646383876721</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.2315965770646715</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.52947045769793588</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.79764450939902798</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.18034863288214198</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.96313990293282503</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.0134386328402594</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.34446332458656276</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.3781050573816538</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.87312444640255149</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.40187829867933272</v>
       </c>
+      <c r="AY2">
+        <v>1.5713803699004147</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.53869824892167983</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.22918620136074555</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.2762679359393816</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.72766963555760367</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.64753135854295807</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.91729457735701569</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.1798626675054766</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.84551962527567426</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.73011237740376522</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.2331671514242233</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.84387064246632326</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.40654668596415738</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.12684248988640923</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.544713802281203</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.23301527322213991</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.20009535738678194</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.73350108135927172</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1.561875420398235</v>
@@ -734,55 +623,55 @@
         <v>0.40360181308746618</v>
       </c>
       <c r="AA3">
-        <v>0.3624694930190302</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.0025657441476838</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.2841283715060534</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.43670874881078886</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.37746107867864803</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4236785743229306</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.55718583117952281</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.53789287117473317</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.85084023248151608</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.8412677002710964</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.35566358028892031</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.93251288437419577</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.15261716424378549</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.92422304724005855</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.34424108024186229</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.15102915801605071</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.0853481404710723</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.0555056435087364</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.45357211596088703</v>
+      </c>
+      <c r="AY3">
+        <v>0.5794088939665164</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.22699920340653015</v>
+        <v>0.65556633424932542</v>
       </c>
       <c r="C2">
-        <v>0.11362432333902261</v>
+        <v>1.4033779609428025</v>
       </c>
       <c r="D2">
-        <v>1.3530315942151367</v>
+        <v>0.96313990293282503</v>
       </c>
       <c r="E2">
-        <v>0.44012257057196758</v>
+        <v>1.3781050573816538</v>
       </c>
       <c r="F2">
         <v>0.7401379621584484</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.53869824875811889</v>
+        <v>1.544713802281203</v>
       </c>
       <c r="C3">
-        <v>0.22918620154760683</v>
+        <v>0.73350108135927172</v>
       </c>
       <c r="D3">
-        <v>1.2762679368723784</v>
+        <v>0.92422304724005855</v>
       </c>
       <c r="E3">
-        <v>0.72766963357034398</v>
+        <v>1.0936601550003962</v>
       </c>
       <c r="F3">
         <v>0.64753135175037591</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.22699920340653015</v>
-      </c>
       <c r="C2">
-        <v>0.11362432333902261</v>
+        <v>0.65556633424932542</v>
       </c>
       <c r="D2">
-        <v>1.3530315942151367</v>
+        <v>0.18034863288214198</v>
       </c>
       <c r="E2">
-        <v>0.44012257057196758</v>
+        <v>0.96313990293282503</v>
       </c>
       <c r="F2">
         <v>0.7401379621584484</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.53869824875811889</v>
+        <v>0.12684248988640923</v>
       </c>
       <c r="C3">
-        <v>0.22918620154760683</v>
+        <v>1.544713802281203</v>
       </c>
       <c r="D3">
-        <v>1.2762679368723784</v>
+        <v>0.15261716424378549</v>
       </c>
       <c r="E3">
-        <v>0.72766963357034398</v>
+        <v>0.92422304724005855</v>
       </c>
       <c r="F3">
         <v>0.64753135175037591</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.22699920311898902</v>
+      </c>
       <c r="C2">
+        <v>0.11362432317820871</v>
+      </c>
+      <c r="D2">
+        <v>1.3530315941490128</v>
+      </c>
+      <c r="E2">
+        <v>0.44012257095566071</v>
+      </c>
+      <c r="F2">
+        <v>0.74013798865629565</v>
+      </c>
+      <c r="G2">
+        <v>0.99091462064376579</v>
+      </c>
+      <c r="H2">
+        <v>2.4706403214083648</v>
+      </c>
+      <c r="I2">
+        <v>8.7749848654102236E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.52223553996572525</v>
+      </c>
+      <c r="K2">
+        <v>0.63497421334066895</v>
+      </c>
+      <c r="L2">
+        <v>0.46337158610398976</v>
+      </c>
+      <c r="M2">
+        <v>1.073480046880259</v>
+      </c>
+      <c r="O2">
         <v>0.65556633424932542</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.31934407896583061</v>
+      </c>
+      <c r="Q2">
+        <v>0.52659637232571421</v>
+      </c>
+      <c r="R2">
+        <v>1.4033779609428025</v>
+      </c>
+      <c r="S2">
+        <v>1.5759368374859319</v>
+      </c>
+      <c r="T2">
+        <v>5.0854416193398819</v>
+      </c>
+      <c r="U2">
+        <v>0.47515563423128598</v>
+      </c>
+      <c r="V2">
+        <v>5.3566697704635118</v>
+      </c>
+      <c r="W2">
+        <v>0.25619107840014327</v>
+      </c>
+      <c r="X2">
+        <v>0.14213261440257788</v>
+      </c>
+      <c r="Y2">
+        <v>0.59305125689135885</v>
+      </c>
+      <c r="AA2">
+        <v>0.39073654089414039</v>
+      </c>
+      <c r="AB2">
+        <v>0.16788968678545216</v>
+      </c>
+      <c r="AC2">
+        <v>2.0102622030869703</v>
+      </c>
+      <c r="AD2">
+        <v>0.16504059813881988</v>
+      </c>
+      <c r="AE2">
+        <v>0.87579083939177416</v>
+      </c>
+      <c r="AF2">
+        <v>1.0230277935281034</v>
+      </c>
+      <c r="AG2">
+        <v>1.1233829684226617</v>
+      </c>
+      <c r="AH2">
+        <v>0.25197603439023436</v>
+      </c>
+      <c r="AI2">
+        <v>0.66550646383876721</v>
+      </c>
+      <c r="AJ2">
+        <v>1.2315965770646715</v>
+      </c>
+      <c r="AK2">
+        <v>0.52947045769793588</v>
+      </c>
+      <c r="AL2">
+        <v>0.79764450939902798</v>
+      </c>
+      <c r="AM2">
         <v>0.18034863288214198</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.96313990293282503</v>
       </c>
-      <c r="F2">
-        <v>0.7401379621584484</v>
-      </c>
-      <c r="G2">
-        <v>0.99091462023359489</v>
-      </c>
-      <c r="H2">
-        <v>2.4706403231982037</v>
-      </c>
-      <c r="I2">
-        <v>8.7749848512626502E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.52223553997398753</v>
-      </c>
-      <c r="K2">
-        <v>0.63497421066315107</v>
-      </c>
-      <c r="L2">
-        <v>0.46337158406451645</v>
-      </c>
-      <c r="M2">
-        <v>1.0734800477663697</v>
-      </c>
-      <c r="O2">
-        <v>0.65556633461127967</v>
-      </c>
-      <c r="P2">
-        <v>0.3193440757393638</v>
-      </c>
-      <c r="Q2">
-        <v>0.52659637229391187</v>
-      </c>
-      <c r="R2">
-        <v>1.4033779626106873</v>
-      </c>
-      <c r="S2">
-        <v>1.5759368313160202</v>
-      </c>
-      <c r="T2">
-        <v>5.0854415823741608</v>
-      </c>
-      <c r="U2">
-        <v>0.4751556322036487</v>
-      </c>
-      <c r="V2">
-        <v>5.3566697778670189</v>
-      </c>
-      <c r="W2">
-        <v>0.25619107845719752</v>
-      </c>
-      <c r="X2">
-        <v>0.14213261525652135</v>
-      </c>
-      <c r="Y2">
-        <v>0.59305125629550315</v>
-      </c>
-      <c r="AA2">
-        <v>0.39073654061988022</v>
-      </c>
-      <c r="AB2">
-        <v>0.16788968675660168</v>
-      </c>
-      <c r="AC2">
-        <v>2.0102621953611362</v>
-      </c>
-      <c r="AD2">
-        <v>0.16504059890193332</v>
-      </c>
-      <c r="AE2">
-        <v>0.87579083952446146</v>
-      </c>
-      <c r="AF2">
-        <v>1.0230278154369907</v>
-      </c>
-      <c r="AG2">
-        <v>1.1233829686206176</v>
-      </c>
-      <c r="AH2">
-        <v>0.2519760393739961</v>
-      </c>
-      <c r="AI2">
-        <v>0.66550646389562362</v>
-      </c>
-      <c r="AJ2">
-        <v>1.2315965758051419</v>
-      </c>
-      <c r="AK2">
-        <v>0.5294704595172276</v>
-      </c>
-      <c r="AL2">
-        <v>0.79764450943150578</v>
-      </c>
-      <c r="AM2">
-        <v>0.18034863320593097</v>
-      </c>
-      <c r="AN2">
-        <v>0.96313990785991566</v>
-      </c>
       <c r="AO2">
-        <v>1.0134386305159928</v>
+        <v>1.0134386328402594</v>
       </c>
       <c r="AP2">
-        <v>0.23565259384091289</v>
+        <v>0.23565259457708457</v>
       </c>
       <c r="AQ2">
-        <v>1.3781050564589912</v>
+        <v>1.3781050573816538</v>
       </c>
       <c r="AR2">
-        <v>0.87312446068467564</v>
+        <v>0.87312444640255149</v>
       </c>
       <c r="AS2">
-        <v>1.4872467347987233</v>
+        <v>1.4872467365507724</v>
       </c>
       <c r="AT2">
-        <v>0.70666299567757695</v>
+        <v>0.70666299603386629</v>
       </c>
       <c r="AU2">
-        <v>1.8600840172407167</v>
+        <v>1.8600840080384202</v>
       </c>
       <c r="AV2">
-        <v>0.22050731645787733</v>
+        <v>0.22050731564194304</v>
       </c>
       <c r="AW2">
-        <v>0.22223689527490501</v>
+        <v>0.22223689377453212</v>
       </c>
       <c r="AX2">
-        <v>0.40187829886006149</v>
+        <v>0.40187829867935804</v>
       </c>
       <c r="AY2">
-        <v>1.5713803699783331</v>
+        <v>1.5713803699004147</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.53869824892167983</v>
+      </c>
+      <c r="C3">
+        <v>0.22918620136074555</v>
+      </c>
+      <c r="D3">
+        <v>1.2762679359393816</v>
+      </c>
+      <c r="E3">
+        <v>0.72766963555760367</v>
+      </c>
+      <c r="F3">
+        <v>0.64753135854295807</v>
+      </c>
+      <c r="G3">
+        <v>0.91729457735701569</v>
+      </c>
+      <c r="H3">
+        <v>2.1798626675054766</v>
+      </c>
+      <c r="I3">
+        <v>1.202232731560724</v>
+      </c>
+      <c r="J3">
+        <v>0.73011237740376522</v>
+      </c>
+      <c r="K3">
+        <v>1.2331671514242233</v>
+      </c>
+      <c r="L3">
+        <v>0.84387064246632326</v>
+      </c>
+      <c r="M3">
+        <v>0.40654668596415738</v>
+      </c>
+      <c r="N3">
         <v>0.12684248988640923</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.544713802281203</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.23301527322213991</v>
+      </c>
+      <c r="Q3">
+        <v>0.20009535738678194</v>
+      </c>
+      <c r="R3">
+        <v>0.73350108135927172</v>
+      </c>
+      <c r="S3">
+        <v>1.4555945973525688</v>
+      </c>
+      <c r="T3">
+        <v>1.0359230317713255</v>
+      </c>
+      <c r="U3">
+        <v>0.81540035594890303</v>
+      </c>
+      <c r="V3">
+        <v>0.69760581170396296</v>
+      </c>
+      <c r="W3">
+        <v>5.0618215761188863E-2</v>
+      </c>
+      <c r="X3">
+        <v>0.11157070480387248</v>
+      </c>
+      <c r="Y3">
+        <v>0.40360181308746618</v>
+      </c>
+      <c r="AA3">
+        <v>0.3624694930190302</v>
+      </c>
+      <c r="AB3">
+        <v>1.0025657441476838</v>
+      </c>
+      <c r="AC3">
+        <v>1.1681580291787608</v>
+      </c>
+      <c r="AD3">
+        <v>0.43670874881078886</v>
+      </c>
+      <c r="AE3">
+        <v>0.37746107867864803</v>
+      </c>
+      <c r="AF3">
+        <v>0.42367857432293327</v>
+      </c>
+      <c r="AG3">
+        <v>0.55718583117952281</v>
+      </c>
+      <c r="AH3">
+        <v>0.12499817323454773</v>
+      </c>
+      <c r="AI3">
+        <v>0.85084023248151608</v>
+      </c>
+      <c r="AJ3">
+        <v>2.8412677002710964</v>
+      </c>
+      <c r="AK3">
+        <v>0.35566358028892031</v>
+      </c>
+      <c r="AL3">
+        <v>0.93251288437419577</v>
+      </c>
+      <c r="AM3">
         <v>0.15261716424378549</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.92422304724005855</v>
       </c>
-      <c r="F3">
-        <v>0.64753135175037591</v>
-      </c>
-      <c r="G3">
-        <v>0.91729457756570909</v>
-      </c>
-      <c r="H3">
-        <v>2.1798626619875301</v>
-      </c>
-      <c r="I3">
-        <v>1.2022327377845734</v>
-      </c>
-      <c r="J3">
-        <v>0.73011237718447619</v>
-      </c>
-      <c r="K3">
-        <v>1.2331671618211975</v>
-      </c>
-      <c r="L3">
-        <v>0.84387064465603656</v>
-      </c>
-      <c r="M3">
-        <v>0.40574711974068184</v>
-      </c>
-      <c r="N3">
-        <v>0.12684248990509553</v>
-      </c>
-      <c r="O3">
-        <v>1.5447137949032779</v>
-      </c>
-      <c r="P3">
-        <v>0.23301527327585828</v>
-      </c>
-      <c r="Q3">
-        <v>0.20009535712558546</v>
-      </c>
-      <c r="R3">
-        <v>0.7335010811255035</v>
-      </c>
-      <c r="S3">
-        <v>1.4555945950066604</v>
-      </c>
-      <c r="T3">
-        <v>1.0359230044845029</v>
-      </c>
-      <c r="U3">
-        <v>0.81540035511209119</v>
-      </c>
-      <c r="V3">
-        <v>0.69760581427739377</v>
-      </c>
-      <c r="W3">
-        <v>5.061821573042035E-2</v>
-      </c>
-      <c r="X3">
-        <v>0.11157070480815789</v>
-      </c>
-      <c r="Y3">
-        <v>0.40360181187978111</v>
-      </c>
-      <c r="AA3">
-        <v>0.36246948991586697</v>
-      </c>
-      <c r="AB3">
-        <v>1.002565745238517</v>
-      </c>
-      <c r="AC3">
-        <v>1.1681580308215502</v>
-      </c>
-      <c r="AD3">
-        <v>0.43670874646859775</v>
-      </c>
-      <c r="AE3">
-        <v>0.37746107844415294</v>
-      </c>
-      <c r="AF3">
-        <v>0.42367857332873582</v>
-      </c>
-      <c r="AG3">
-        <v>0.55718582504845215</v>
-      </c>
-      <c r="AH3">
-        <v>0.12499817330585836</v>
-      </c>
-      <c r="AI3">
-        <v>0.85084023078015847</v>
-      </c>
-      <c r="AJ3">
-        <v>2.8412676855999686</v>
-      </c>
-      <c r="AK3">
-        <v>0.35566358053378949</v>
-      </c>
-      <c r="AL3">
-        <v>0.93251288647657538</v>
-      </c>
-      <c r="AM3">
-        <v>0.1526171642639739</v>
-      </c>
-      <c r="AN3">
-        <v>0.92422306070904814</v>
-      </c>
       <c r="AO3">
-        <v>0.34424108024206618</v>
+        <v>0.34424108024186229</v>
       </c>
       <c r="AP3">
-        <v>0.11791954720057204</v>
+        <v>0.11791954726600343</v>
       </c>
       <c r="AQ3">
-        <v>1.0936601312414382</v>
+        <v>1.0936601550003962</v>
       </c>
       <c r="AR3">
-        <v>1.0555056483311311</v>
+        <v>1.0555056435087364</v>
       </c>
       <c r="AS3">
-        <v>0.59242666295205615</v>
+        <v>0.59242665836165564</v>
       </c>
       <c r="AT3">
-        <v>0.39968469268863788</v>
+        <v>0.39968470158358227</v>
       </c>
       <c r="AU3">
-        <v>0.97531458378235036</v>
+        <v>0.97531457487780615</v>
       </c>
       <c r="AV3">
-        <v>0.23522937696068869</v>
+        <v>0.23522937696953317</v>
       </c>
       <c r="AW3">
-        <v>0.12518807296408024</v>
+        <v>0.12518807293177228</v>
       </c>
       <c r="AX3">
-        <v>0.45357211772347533</v>
+        <v>0.45357211596088703</v>
       </c>
       <c r="AY3">
-        <v>0.57940889327581535</v>
+        <v>0.5794088939665164</v>
       </c>
     </row>
   </sheetData>
